--- a/data/rainfall_2010.xlsx
+++ b/data/rainfall_2010.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73C42A2-9F8F-47A4-89FA-F52EFDBFFB95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5214EFFA-A1CA-4678-B6F7-8CDC4F8549EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="65">
   <si>
     <t>FECHA</t>
   </si>
@@ -44,100 +44,190 @@
     <t>0.0</t>
   </si>
   <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>22.5</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>11.8</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>28.1</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>12.6</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>15.6</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>22.3</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
     <t>3.4</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>14.3</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>19.7</t>
-  </si>
-  <si>
-    <t>14.2</t>
-  </si>
-  <si>
-    <t>12.6</t>
-  </si>
-  <si>
-    <t>12.7</t>
-  </si>
-  <si>
-    <t>17.2</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>8.4</t>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>18.8</t>
+  </si>
+  <si>
+    <t>12.8</t>
+  </si>
+  <si>
+    <t>4.7</t>
   </si>
 </sst>
 </file>
@@ -484,15 +574,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B312"/>
+  <dimension ref="A1:B360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="C232" sqref="C232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -505,7 +595,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>39821</v>
+        <v>40180</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -513,7 +603,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>39822</v>
+        <v>40181</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -521,7 +611,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>39823</v>
+        <v>40182</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -529,7 +619,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>39824</v>
+        <v>40183</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -537,31 +627,31 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>39825</v>
+        <v>40184</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>39826</v>
+        <v>40185</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>39827</v>
+        <v>40186</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>39828</v>
+        <v>40187</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -569,7 +659,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>39829</v>
+        <v>40188</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -577,55 +667,55 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>39830</v>
+        <v>40189</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>39831</v>
+        <v>40190</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>39832</v>
+        <v>40191</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>39833</v>
+        <v>40192</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>39834</v>
+        <v>40193</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>39835</v>
+        <v>40194</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>39836</v>
+        <v>40195</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>2</v>
@@ -633,23 +723,23 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>39837</v>
+        <v>40196</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>39838</v>
+        <v>40197</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>39839</v>
+        <v>40198</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>2</v>
@@ -657,7 +747,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>39840</v>
+        <v>40199</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>2</v>
@@ -665,15 +755,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>39841</v>
+        <v>40200</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>39842</v>
+        <v>40201</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>12</v>
@@ -681,29 +771,31 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>39843</v>
+        <v>40202</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>39844</v>
-      </c>
-      <c r="B25" s="1"/>
+        <v>40203</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>39868</v>
+        <v>40204</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>39869</v>
+        <v>40205</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>2</v>
@@ -711,7 +803,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>39870</v>
+        <v>40206</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>2</v>
@@ -719,7 +811,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>39871</v>
+        <v>40207</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>2</v>
@@ -727,39 +819,39 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>39872</v>
+        <v>40208</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>39873</v>
+        <v>40209</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>39874</v>
+        <v>40210</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>39875</v>
+        <v>40211</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>39876</v>
+        <v>40212</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>14</v>
@@ -767,15 +859,15 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>39877</v>
+        <v>40213</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>39878</v>
+        <v>40214</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>2</v>
@@ -783,7 +875,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>39879</v>
+        <v>40215</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>2</v>
@@ -791,23 +883,23 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>39880</v>
+        <v>40216</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>39881</v>
+        <v>40217</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>39882</v>
+        <v>40218</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>2</v>
@@ -815,7 +907,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>39883</v>
+        <v>40219</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>2</v>
@@ -823,7 +915,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>39884</v>
+        <v>40220</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>2</v>
@@ -831,7 +923,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>39885</v>
+        <v>40221</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>2</v>
@@ -839,7 +931,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>39886</v>
+        <v>40222</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>2</v>
@@ -847,7 +939,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>39887</v>
+        <v>40223</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>2</v>
@@ -855,23 +947,23 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>39888</v>
+        <v>40224</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>39889</v>
+        <v>40225</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>39890</v>
+        <v>40226</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>2</v>
@@ -879,15 +971,15 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>39891</v>
+        <v>40227</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>39892</v>
+        <v>40228</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>2</v>
@@ -895,79 +987,77 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>39893</v>
+        <v>40229</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>39895</v>
+        <v>40230</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>39896</v>
+        <v>40231</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>39897</v>
+        <v>40232</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>39898</v>
+        <v>40233</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>39899</v>
+        <v>40234</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>39900</v>
+        <v>40235</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>39901</v>
+        <v>40236</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>39902</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>40237</v>
+      </c>
+      <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>39903</v>
+        <v>40238</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>2</v>
@@ -975,23 +1065,23 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>39904</v>
+        <v>40239</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>39905</v>
+        <v>40240</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>39906</v>
+        <v>40241</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>2</v>
@@ -999,57 +1089,61 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>39907</v>
+        <v>40242</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>39908</v>
+        <v>40243</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>39909</v>
-      </c>
-      <c r="B66" s="1"/>
+        <v>40244</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>39910</v>
+        <v>40245</v>
       </c>
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>39911</v>
-      </c>
-      <c r="B68" s="1"/>
+        <v>40246</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>39912</v>
+        <v>40247</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>39913</v>
+        <v>40248</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>39914</v>
+        <v>40249</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>2</v>
@@ -1057,13 +1151,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>39915</v>
-      </c>
-      <c r="B72" s="1"/>
+        <v>40250</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>39916</v>
+        <v>40251</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>2</v>
@@ -1071,63 +1167,63 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>39917</v>
+        <v>40252</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>39918</v>
+        <v>40253</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>39919</v>
+        <v>40254</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>39920</v>
+        <v>40255</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>39921</v>
+        <v>40256</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>39922</v>
+        <v>40257</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>39923</v>
+        <v>40258</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>39924</v>
+        <v>40259</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>2</v>
@@ -1135,7 +1231,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>39925</v>
+        <v>40260</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>2</v>
@@ -1143,23 +1239,23 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>39926</v>
+        <v>40261</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>39927</v>
+        <v>40262</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>39928</v>
+        <v>40263</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>2</v>
@@ -1167,41 +1263,47 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>39929</v>
+        <v>40264</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>39930</v>
-      </c>
-      <c r="B87" s="1"/>
+        <v>40265</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>39931</v>
-      </c>
-      <c r="B88" s="1"/>
+        <v>40266</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>39932</v>
-      </c>
-      <c r="B89" s="1"/>
+        <v>40267</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>39933</v>
+        <v>40268</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>39934</v>
+        <v>40269</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>2</v>
@@ -1209,7 +1311,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>39935</v>
+        <v>40270</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>2</v>
@@ -1217,21 +1319,23 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>39936</v>
+        <v>40271</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>39937</v>
-      </c>
-      <c r="B94" s="1"/>
+        <v>40272</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>39938</v>
+        <v>40273</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>2</v>
@@ -1239,13 +1343,15 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>39939</v>
-      </c>
-      <c r="B96" s="1"/>
+        <v>40274</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>39940</v>
+        <v>40275</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>2</v>
@@ -1253,71 +1359,77 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>39941</v>
-      </c>
-      <c r="B98" s="1"/>
+        <v>40276</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>39942</v>
-      </c>
-      <c r="B99" s="1"/>
+        <v>40277</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>39943</v>
-      </c>
-      <c r="B100" s="1"/>
+        <v>40278</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>39944</v>
-      </c>
-      <c r="B101" s="1"/>
+        <v>40279</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>39945</v>
+        <v>40280</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>39948</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>40283</v>
+      </c>
+      <c r="B103" s="1"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>39949</v>
+        <v>40284</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>39950</v>
+        <v>40285</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>39951</v>
+        <v>40286</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>39952</v>
+        <v>40287</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>2</v>
@@ -1325,7 +1437,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>39953</v>
+        <v>40288</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>2</v>
@@ -1333,31 +1445,31 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>39954</v>
+        <v>40289</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>39955</v>
+        <v>40290</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>39956</v>
+        <v>40291</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>39957</v>
+        <v>40292</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>2</v>
@@ -1365,7 +1477,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>39958</v>
+        <v>40293</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>2</v>
@@ -1373,7 +1485,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>39959</v>
+        <v>40294</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>2</v>
@@ -1381,7 +1493,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>39960</v>
+        <v>40295</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>2</v>
@@ -1389,7 +1501,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>39961</v>
+        <v>40296</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>2</v>
@@ -1397,7 +1509,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>39962</v>
+        <v>40297</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>2</v>
@@ -1405,31 +1517,29 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>39963</v>
+        <v>40299</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>39964</v>
+        <v>40300</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>39965</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>40301</v>
+      </c>
+      <c r="B120" s="1"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>39966</v>
+        <v>40302</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>2</v>
@@ -1437,7 +1547,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>39967</v>
+        <v>40303</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>2</v>
@@ -1445,7 +1555,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>39968</v>
+        <v>40304</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>2</v>
@@ -1453,39 +1563,39 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>39969</v>
+        <v>40305</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>39970</v>
+        <v>40306</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>39971</v>
+        <v>40307</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>39972</v>
+        <v>40308</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>39973</v>
+        <v>40309</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>2</v>
@@ -1493,7 +1603,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>39974</v>
+        <v>40310</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>2</v>
@@ -1501,23 +1611,23 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>39986</v>
+        <v>40311</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>39987</v>
+        <v>40312</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>39988</v>
+        <v>40313</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>2</v>
@@ -1525,7 +1635,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>39989</v>
+        <v>40314</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>2</v>
@@ -1533,7 +1643,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>39990</v>
+        <v>40315</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>2</v>
@@ -1541,7 +1651,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>39991</v>
+        <v>40316</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>2</v>
@@ -1549,7 +1659,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>39992</v>
+        <v>40317</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>2</v>
@@ -1557,7 +1667,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>39993</v>
+        <v>40318</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>2</v>
@@ -1565,7 +1675,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>39994</v>
+        <v>40319</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>2</v>
@@ -1573,7 +1683,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>39995</v>
+        <v>40320</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>2</v>
@@ -1581,7 +1691,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>39996</v>
+        <v>40321</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>2</v>
@@ -1589,7 +1699,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>39997</v>
+        <v>40322</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>2</v>
@@ -1597,7 +1707,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>39998</v>
+        <v>40323</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>2</v>
@@ -1605,7 +1715,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>39999</v>
+        <v>40324</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>2</v>
@@ -1613,7 +1723,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>40000</v>
+        <v>40325</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>2</v>
@@ -1621,7 +1731,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>40001</v>
+        <v>40326</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>2</v>
@@ -1629,7 +1739,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>40002</v>
+        <v>40327</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>2</v>
@@ -1637,7 +1747,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>40003</v>
+        <v>40328</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>2</v>
@@ -1645,7 +1755,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>40004</v>
+        <v>40329</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>2</v>
@@ -1653,7 +1763,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>40005</v>
+        <v>40330</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>2</v>
@@ -1661,7 +1771,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>40006</v>
+        <v>40331</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>2</v>
@@ -1669,7 +1779,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>40007</v>
+        <v>40332</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>2</v>
@@ -1677,7 +1787,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>40008</v>
+        <v>40333</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>2</v>
@@ -1685,7 +1795,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>40009</v>
+        <v>40334</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>2</v>
@@ -1693,7 +1803,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>40010</v>
+        <v>40335</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>2</v>
@@ -1701,7 +1811,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>40011</v>
+        <v>40336</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>2</v>
@@ -1709,47 +1819,47 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>40012</v>
+        <v>40337</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>40013</v>
+        <v>40338</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>40014</v>
+        <v>40339</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>40015</v>
+        <v>40340</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>40016</v>
+        <v>40341</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>40017</v>
+        <v>40342</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>2</v>
@@ -1757,23 +1867,21 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>40018</v>
+        <v>40343</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>40019</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>40344</v>
+      </c>
+      <c r="B163" s="1"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>40020</v>
+        <v>40345</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>2</v>
@@ -1781,7 +1889,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>40021</v>
+        <v>40346</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>2</v>
@@ -1789,15 +1897,15 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>40022</v>
+        <v>40347</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>40023</v>
+        <v>40348</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>2</v>
@@ -1805,7 +1913,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>40024</v>
+        <v>40349</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>2</v>
@@ -1813,7 +1921,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>40025</v>
+        <v>40350</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>2</v>
@@ -1821,15 +1929,15 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>40026</v>
+        <v>40351</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>40027</v>
+        <v>40352</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>2</v>
@@ -1837,31 +1945,31 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>40028</v>
+        <v>40353</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>40029</v>
+        <v>40354</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>40030</v>
+        <v>40355</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>40031</v>
+        <v>40356</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>2</v>
@@ -1869,7 +1977,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>40032</v>
+        <v>40358</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>2</v>
@@ -1877,7 +1985,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>40033</v>
+        <v>40359</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>2</v>
@@ -1885,7 +1993,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>40034</v>
+        <v>40360</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>2</v>
@@ -1893,23 +2001,23 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>40035</v>
+        <v>40361</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>40036</v>
+        <v>40362</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>40037</v>
+        <v>40363</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>2</v>
@@ -1917,7 +2025,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>40038</v>
+        <v>40364</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>2</v>
@@ -1925,7 +2033,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>40039</v>
+        <v>40365</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>2</v>
@@ -1933,7 +2041,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>40040</v>
+        <v>40366</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>2</v>
@@ -1941,15 +2049,15 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>40041</v>
+        <v>40367</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>40042</v>
+        <v>40368</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>2</v>
@@ -1957,7 +2065,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>40044</v>
+        <v>40369</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>2</v>
@@ -1965,7 +2073,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>40045</v>
+        <v>40370</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>2</v>
@@ -1973,19 +2081,23 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>40046</v>
-      </c>
-      <c r="B189" s="1"/>
+        <v>40371</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>40047</v>
-      </c>
-      <c r="B190" s="1"/>
+        <v>40372</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>40048</v>
+        <v>40373</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>2</v>
@@ -1993,13 +2105,15 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>40049</v>
-      </c>
-      <c r="B192" s="1"/>
+        <v>40374</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>40050</v>
+        <v>40375</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>2</v>
@@ -2007,7 +2121,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>40051</v>
+        <v>40376</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>2</v>
@@ -2015,7 +2129,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>40052</v>
+        <v>40377</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>2</v>
@@ -2023,7 +2137,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>40053</v>
+        <v>40378</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>2</v>
@@ -2031,7 +2145,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>40054</v>
+        <v>40379</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>2</v>
@@ -2039,7 +2153,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>40055</v>
+        <v>40380</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>2</v>
@@ -2047,7 +2161,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>40056</v>
+        <v>40381</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>2</v>
@@ -2055,7 +2169,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>40057</v>
+        <v>40382</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>2</v>
@@ -2063,7 +2177,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>40058</v>
+        <v>40383</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>2</v>
@@ -2071,7 +2185,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>40059</v>
+        <v>40384</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>2</v>
@@ -2079,7 +2193,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <v>40060</v>
+        <v>40385</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>2</v>
@@ -2087,7 +2201,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <v>40061</v>
+        <v>40386</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>2</v>
@@ -2095,7 +2209,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>40062</v>
+        <v>40387</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>2</v>
@@ -2103,7 +2217,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
-        <v>40063</v>
+        <v>40388</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>2</v>
@@ -2111,15 +2225,15 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>40064</v>
+        <v>40389</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <v>40066</v>
+        <v>40390</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>2</v>
@@ -2127,7 +2241,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
-        <v>40067</v>
+        <v>40391</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>2</v>
@@ -2135,23 +2249,23 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
-        <v>40068</v>
+        <v>40392</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
-        <v>40069</v>
+        <v>40393</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
-        <v>40070</v>
+        <v>40394</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>2</v>
@@ -2159,7 +2273,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
-        <v>40071</v>
+        <v>40395</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>2</v>
@@ -2167,31 +2281,31 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
-        <v>40072</v>
+        <v>40396</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
-        <v>40073</v>
+        <v>40397</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
-        <v>40074</v>
+        <v>40398</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
-        <v>40075</v>
+        <v>40399</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>2</v>
@@ -2199,7 +2313,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
-        <v>40076</v>
+        <v>40400</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>2</v>
@@ -2207,7 +2321,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
-        <v>40077</v>
+        <v>40401</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>2</v>
@@ -2215,7 +2329,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
-        <v>40078</v>
+        <v>40402</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>2</v>
@@ -2223,7 +2337,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
-        <v>40079</v>
+        <v>40403</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>2</v>
@@ -2231,7 +2345,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
-        <v>40080</v>
+        <v>40404</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>2</v>
@@ -2239,7 +2353,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
-        <v>40081</v>
+        <v>40405</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>2</v>
@@ -2247,7 +2361,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
-        <v>40082</v>
+        <v>40406</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>2</v>
@@ -2255,7 +2369,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
-        <v>40083</v>
+        <v>40407</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>2</v>
@@ -2263,7 +2377,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
-        <v>40084</v>
+        <v>40408</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>2</v>
@@ -2271,15 +2385,15 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
-        <v>40085</v>
+        <v>40409</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
-        <v>40086</v>
+        <v>40410</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>2</v>
@@ -2287,7 +2401,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
-        <v>40087</v>
+        <v>40411</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>2</v>
@@ -2295,7 +2409,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
-        <v>40088</v>
+        <v>40412</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>2</v>
@@ -2303,7 +2417,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
-        <v>40089</v>
+        <v>40413</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>2</v>
@@ -2311,7 +2425,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
-        <v>40090</v>
+        <v>40414</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>2</v>
@@ -2319,7 +2433,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
-        <v>40091</v>
+        <v>40415</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>2</v>
@@ -2327,7 +2441,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
-        <v>40092</v>
+        <v>40416</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>2</v>
@@ -2335,23 +2449,23 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
-        <v>40093</v>
+        <v>40417</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
-        <v>40094</v>
+        <v>40418</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
-        <v>40095</v>
+        <v>40419</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>2</v>
@@ -2359,7 +2473,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
-        <v>40096</v>
+        <v>40420</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>2</v>
@@ -2367,7 +2481,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
-        <v>40097</v>
+        <v>40421</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>2</v>
@@ -2375,15 +2489,15 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
-        <v>40098</v>
+        <v>40422</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
-        <v>40099</v>
+        <v>40423</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>2</v>
@@ -2391,7 +2505,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
-        <v>40100</v>
+        <v>40424</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>2</v>
@@ -2399,7 +2513,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
-        <v>40101</v>
+        <v>40425</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>2</v>
@@ -2407,7 +2521,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
-        <v>40102</v>
+        <v>40426</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>2</v>
@@ -2415,7 +2529,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
-        <v>40103</v>
+        <v>40427</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>2</v>
@@ -2423,7 +2537,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
-        <v>40104</v>
+        <v>40428</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>2</v>
@@ -2431,7 +2545,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
-        <v>40105</v>
+        <v>40429</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>2</v>
@@ -2439,21 +2553,23 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
-        <v>40106</v>
+        <v>40430</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
-        <v>40107</v>
-      </c>
-      <c r="B249" s="1"/>
+        <v>40431</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
-        <v>40108</v>
+        <v>40432</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>2</v>
@@ -2461,7 +2577,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
-        <v>40109</v>
+        <v>40433</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>2</v>
@@ -2469,13 +2585,15 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
-        <v>40110</v>
-      </c>
-      <c r="B252" s="1"/>
+        <v>40434</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
-        <v>40111</v>
+        <v>40435</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>2</v>
@@ -2483,21 +2601,23 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
-        <v>40113</v>
-      </c>
-      <c r="B254" s="1"/>
+        <v>40436</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
-        <v>40114</v>
+        <v>40437</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
-        <v>40117</v>
+        <v>40438</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>2</v>
@@ -2505,7 +2625,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
-        <v>40118</v>
+        <v>40439</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>2</v>
@@ -2513,7 +2633,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
-        <v>40119</v>
+        <v>40440</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>2</v>
@@ -2521,7 +2641,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
-        <v>40120</v>
+        <v>40441</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>2</v>
@@ -2529,7 +2649,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
-        <v>40121</v>
+        <v>40442</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>2</v>
@@ -2537,7 +2657,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
-        <v>40122</v>
+        <v>40443</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>2</v>
@@ -2545,7 +2665,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
-        <v>40123</v>
+        <v>40444</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>2</v>
@@ -2553,59 +2673,49 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
-        <v>40124</v>
+        <v>40445</v>
       </c>
       <c r="B263" s="1"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
-        <v>40126</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>40446</v>
+      </c>
+      <c r="B264" s="1"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
-        <v>40127</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>40447</v>
+      </c>
+      <c r="B265" s="1"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
-        <v>40128</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>40448</v>
+      </c>
+      <c r="B266" s="1"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
-        <v>40129</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>40449</v>
+      </c>
+      <c r="B267" s="1"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
-        <v>40130</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>40450</v>
+      </c>
+      <c r="B268" s="1"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
-        <v>40131</v>
+        <v>40451</v>
       </c>
       <c r="B269" s="1"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
-        <v>40133</v>
+        <v>40452</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>2</v>
@@ -2613,7 +2723,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
-        <v>40134</v>
+        <v>40453</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>2</v>
@@ -2621,15 +2731,15 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
-        <v>40135</v>
+        <v>40454</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
-        <v>40136</v>
+        <v>40455</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>2</v>
@@ -2637,7 +2747,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
-        <v>40137</v>
+        <v>40456</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>2</v>
@@ -2645,7 +2755,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
-        <v>40138</v>
+        <v>40457</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>2</v>
@@ -2653,91 +2763,91 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
-        <v>40139</v>
+        <v>40458</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
-        <v>40140</v>
+        <v>40459</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
-        <v>40141</v>
+        <v>40460</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
-        <v>40142</v>
+        <v>40461</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
-        <v>40143</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>40462</v>
+      </c>
+      <c r="B280" s="1"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
-        <v>40144</v>
+        <v>40463</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
-        <v>40145</v>
+        <v>40464</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
-        <v>40146</v>
+        <v>40465</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
-        <v>40147</v>
+        <v>40466</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
-        <v>40148</v>
-      </c>
-      <c r="B285" s="1"/>
+        <v>40467</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
-        <v>40149</v>
+        <v>40468</v>
       </c>
       <c r="B286" s="1"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
-        <v>40150</v>
+        <v>40469</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>2</v>
@@ -2745,7 +2855,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
-        <v>40151</v>
+        <v>40470</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>2</v>
@@ -2753,31 +2863,31 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
-        <v>40152</v>
+        <v>40471</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
-        <v>40153</v>
+        <v>40472</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
-        <v>40154</v>
+        <v>40473</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
-        <v>40155</v>
+        <v>40474</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>2</v>
@@ -2785,7 +2895,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
-        <v>40156</v>
+        <v>40475</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>2</v>
@@ -2793,7 +2903,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
-        <v>40157</v>
+        <v>40476</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>2</v>
@@ -2801,13 +2911,15 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
-        <v>40158</v>
-      </c>
-      <c r="B295" s="1"/>
+        <v>40477</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
-        <v>40159</v>
+        <v>40478</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>2</v>
@@ -2815,7 +2927,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
-        <v>40160</v>
+        <v>40479</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>2</v>
@@ -2823,31 +2935,31 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
-        <v>40161</v>
+        <v>40480</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
-        <v>40162</v>
+        <v>40481</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
-        <v>40163</v>
+        <v>40482</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
-        <v>40164</v>
+        <v>40483</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>2</v>
@@ -2855,13 +2967,15 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
-        <v>40165</v>
-      </c>
-      <c r="B302" s="1"/>
+        <v>40484</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
-        <v>40166</v>
+        <v>40485</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>2</v>
@@ -2869,7 +2983,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
-        <v>40167</v>
+        <v>40486</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>2</v>
@@ -2877,65 +2991,441 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
-        <v>40168</v>
+        <v>40487</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
-        <v>40169</v>
+        <v>40488</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
-        <v>40170</v>
+        <v>40489</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
-        <v>40171</v>
+        <v>40490</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
-        <v>40172</v>
+        <v>40491</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
-        <v>40175</v>
+        <v>40492</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
-        <v>40176</v>
+        <v>40493</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
-        <v>40177</v>
-      </c>
-      <c r="B312" s="1"/>
+        <v>40494</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="2">
+        <v>40495</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="2">
+        <v>40496</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="2">
+        <v>40497</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="2">
+        <v>40498</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="2">
+        <v>40499</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="2">
+        <v>40500</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="2">
+        <v>40501</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="2">
+        <v>40502</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="2">
+        <v>40503</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="2">
+        <v>40504</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="2">
+        <v>40505</v>
+      </c>
+      <c r="B323" s="1"/>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="2">
+        <v>40506</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="2">
+        <v>40507</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="2">
+        <v>40508</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="2">
+        <v>40509</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="2">
+        <v>40510</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="2">
+        <v>40511</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="2">
+        <v>40512</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="2">
+        <v>40513</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="2">
+        <v>40514</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="2">
+        <v>40515</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="2">
+        <v>40516</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="2">
+        <v>40517</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="2">
+        <v>40518</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="2">
+        <v>40519</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="2">
+        <v>40520</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="2">
+        <v>40521</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="2">
+        <v>40522</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="2">
+        <v>40523</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="2">
+        <v>40524</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="2">
+        <v>40525</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="2">
+        <v>40526</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="2">
+        <v>40527</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="2">
+        <v>40528</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="2">
+        <v>40529</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="2">
+        <v>40530</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="2">
+        <v>40531</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="2">
+        <v>40532</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="2">
+        <v>40534</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="2">
+        <v>40535</v>
+      </c>
+      <c r="B352" s="1"/>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="2">
+        <v>40536</v>
+      </c>
+      <c r="B353" s="1"/>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="2">
+        <v>40537</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="2">
+        <v>40538</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="2">
+        <v>40539</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="2">
+        <v>40540</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="2">
+        <v>40541</v>
+      </c>
+      <c r="B358" s="1"/>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="2">
+        <v>40542</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="2">
+        <v>40543</v>
+      </c>
+      <c r="B360" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
